--- a/data/income_statement/3digits/total/204_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/204_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>204-Manufacture of soap and detergents, cleaning and polishing preparations, perfumes and toilet preparations</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>204-Manufacture of soap and detergents, cleaning and polishing preparations, perfumes and toilet preparations</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>5091933.68744</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>5890379.171210001</v>
+        <v>5890379.17121</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>7653620.50656</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7938849.5914</v>
+        <v>7938849.591399999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>9027084.839259999</v>
+        <v>9027807.89359</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>9713665.246059999</v>
+        <v>10813211.3987</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>11132737.91686</v>
+        <v>12110265.07148</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>12764741.05563</v>
+        <v>12848586.51235</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>15270370.14289</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>19474408.7268</v>
+        <v>19496882.84646</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>23490210.77084</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>23535756.64963</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>34981207.622</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>3851679.37476</v>
@@ -995,37 +906,42 @@
         <v>4942469.14096</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5822000.266449999</v>
+        <v>5822000.26645</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>6557438.8299</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7397544.829109999</v>
+        <v>7398262.029569999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7914495.5027</v>
+        <v>8985515.537079999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>9189366.266460001</v>
+        <v>10139212.15733</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>10701581.42357</v>
+        <v>10767976.91745</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>12707927.71058</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>15894686.189</v>
+        <v>15908208.66725</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>18901949.15033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>18945755.0222</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>27863044.87</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1187772.35417</v>
@@ -1040,31 +956,36 @@
         <v>1327911.32913</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1556758.36232</v>
+        <v>1556761.10769</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1723685.84886</v>
+        <v>1747294.62176</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1855622.1288</v>
+        <v>1866676.28235</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1945212.0926</v>
+        <v>1962662.05544</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>2399692.13631</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3305442.19337</v>
+        <v>3313945.03521</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4346764.16663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4348276.92864</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6502216.664</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>52481.95851</v>
@@ -1073,19 +994,19 @@
         <v>50348.39097</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>57013.91515</v>
+        <v>57013.91514999999</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>53499.43236999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>72781.64783</v>
+        <v>72784.75633</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>75483.89449999999</v>
+        <v>80401.23986</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>87749.52160000001</v>
+        <v>104376.6318</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>117947.53946</v>
@@ -1094,19 +1015,24 @@
         <v>162750.296</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>274280.34443</v>
+        <v>274729.144</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>241497.45388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>241724.69879</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>615946.088</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>832538.0756900001</v>
+        <v>832538.07569</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>1051478.38816</v>
@@ -1121,34 +1047,39 @@
         <v>1433791.71133</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1686983.52731</v>
+        <v>1692081.43627</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1854884.44126</v>
+        <v>1862112.20328</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1944245.24688</v>
+        <v>1945686.00608</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>2182226.34649</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2817517.651229999</v>
+        <v>2817596.18996</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3255606.91672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3255826.61046</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>4809875.993</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>81232.07327999998</v>
+        <v>81232.07328</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>86583.10829</v>
+        <v>86583.10828999999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>92118.71654000001</v>
@@ -1160,31 +1091,36 @@
         <v>115960.15418</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>133378.92675</v>
+        <v>137991.05295</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>159262.85629</v>
+        <v>165943.68956</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>215010.97911</v>
+        <v>216336.48936</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>224450.2766</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>276603.46531</v>
+        <v>276681.5757</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>337030.62562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>337249.2048</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>852074.867</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>745735.4964000001</v>
+        <v>745735.4963999999</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>952324.44501</v>
@@ -1199,28 +1135,33 @@
         <v>1308474.34972</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1536565.14604</v>
+        <v>1537050.9288</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1660832.88289</v>
+        <v>1660953.99715</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1712929.44767</v>
+        <v>1713044.69662</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1939109.74498</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2512405.22799</v>
+        <v>2512405.65633</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2883311.27096</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2883312.38552</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3888876.565</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>5570.50601</v>
@@ -1241,7 +1182,7 @@
         <v>17039.45452</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>34788.70208</v>
+        <v>35214.51657</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>16304.8201</v>
@@ -1255,50 +1196,60 @@
       <c r="M12" s="48" t="n">
         <v>35265.02014</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>68924.561</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4259395.611749999</v>
+        <v>4259395.61175</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>4838900.783049999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>6513579.265570001</v>
+        <v>6513579.26557</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6695483.227820001</v>
+        <v>6695483.22782</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7593293.12793</v>
+        <v>7594016.18226</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>8026681.718750001</v>
+        <v>9121129.96243</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>9277853.4756</v>
+        <v>10248152.8682</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10820495.80875</v>
+        <v>10902900.50627</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>13088143.7964</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>16656891.07557</v>
+        <v>16679286.6565</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>20234603.85412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>20279930.03917</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>30171331.629</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2937350.24155</v>
@@ -1313,31 +1264,36 @@
         <v>4816590.993400001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5447352.13169</v>
+        <v>5447917.76579</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5878803.956270001</v>
+        <v>6674233.00322</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6786895.337769999</v>
+        <v>7500832.685380001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>7861446.06306</v>
+        <v>7927427.29248</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>9616973.457940001</v>
+        <v>9616973.457939999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>12120933.41934</v>
+        <v>12141045.58381</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>15074270.65262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15112769.86488</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>22566069.141</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2227538.26308</v>
@@ -1349,37 +1305,42 @@
         <v>3139716.88253</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3747284.803230001</v>
+        <v>3747284.80323</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4207125.90926</v>
+        <v>4207502.60939</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4276488.47033</v>
+        <v>5059840.68499</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4721613.85654</v>
+        <v>5415692.02637</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5639020.09511</v>
+        <v>5703092.87998</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>6876003.60982</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>8828722.98308</v>
+        <v>8838073.622860001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>11106948.04621</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>11125627.24609</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>15570144.77</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>640040.9054200001</v>
+        <v>640040.9054199998</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>764262.36071</v>
@@ -1391,31 +1352,36 @@
         <v>1025409.22573</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1198614.24111</v>
+        <v>1198803.17508</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1551699.81079</v>
+        <v>1560337.27681</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2023914.83429</v>
+        <v>2037888.8486</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2147464.43156</v>
+        <v>2148193.466109999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2660228.94046</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3179738.18033</v>
+        <v>3188573.693229999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3829153.202550001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3841017.54515</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>6817939.064</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>57677.24542</v>
@@ -1433,28 +1399,33 @@
         <v>25079.2294</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>33891.76113000001</v>
+        <v>33891.76112999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>20840.73481</v>
+        <v>20851.05401</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>32551.80278</v>
+        <v>33731.21278</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>39708.5507</v>
+        <v>39708.55069999999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>57846.16177000001</v>
+        <v>59474.80056</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>56902.65326000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>64858.32303999999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>50788.217</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>12093.82763</v>
@@ -1472,28 +1443,33 @@
         <v>16532.75192</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>16723.91402</v>
+        <v>20163.28029</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>20525.91213</v>
+        <v>26400.7564</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>42409.73361</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>41032.35695999999</v>
+        <v>41032.35696</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>54626.09416</v>
+        <v>54923.46716000001</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>81266.75060000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>127197.09</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1322045.3702</v>
@@ -1508,31 +1484,36 @@
         <v>1878892.23442</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2145940.99624</v>
+        <v>2146098.41647</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2147877.76248</v>
+        <v>2446896.95921</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2490958.13783</v>
+        <v>2747320.18282</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2959049.74569</v>
+        <v>2975473.213789999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3471170.33846</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4535957.65623</v>
+        <v>4538241.07269</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5160333.2015</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5167160.17429</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7605262.488</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>956846.18099</v>
@@ -1544,34 +1525,39 @@
         <v>1239215.05387</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1360033.65847</v>
+        <v>1360090.01537</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1574262.39887</v>
+        <v>1574478.53081</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1607114.79085</v>
+        <v>1826786.29174</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1827166.56397</v>
+        <v>2017575.52611</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2247663.35231</v>
+        <v>2269152.6455</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2521740.31114</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3193975.60112</v>
+        <v>3197670.86037</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3475772.99677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3487366.765980001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4571073.615</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>14656.1912</v>
@@ -1589,13 +1575,13 @@
         <v>19301.13965</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>19583.46317</v>
+        <v>25097.38694</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>21143.33006</v>
+        <v>24171.35385</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>24982.88531</v>
+        <v>25616.77558</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>25875.15801</v>
@@ -1604,13 +1590,18 @@
         <v>26866.49743</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>33586.35153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>34268.92382</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>48950.2</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>676386.8218200001</v>
@@ -1625,31 +1616,36 @@
         <v>934486.0780900001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1074774.52367</v>
+        <v>1074836.25799</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1041342.23749</v>
+        <v>1218550.83794</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1152797.01009</v>
+        <v>1299354.37563</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1472609.53955</v>
+        <v>1487936.18649</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1662016.77262</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2120324.43702</v>
+        <v>2121214.61491</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2190743.33801</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2192570.24622</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2908848.515</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>265803.16797</v>
@@ -1661,73 +1657,83 @@
         <v>358726.03658</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>408202.38626</v>
+        <v>408258.74316</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>480186.73555</v>
+        <v>480341.13317</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>546189.0901899999</v>
+        <v>583138.06686</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>653226.2238200001</v>
+        <v>694049.79663</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>750070.9274500001</v>
+        <v>755599.68343</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>833848.38051</v>
+        <v>833848.3805100002</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1046784.66667</v>
+        <v>1049589.74803</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1251443.30723</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1260527.59594</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1613274.9</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>365199.18921</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>381202.05984</v>
+        <v>381202.0598400001</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>459485.4014</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>518858.57595</v>
+        <v>518802.2190500001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>571678.59737</v>
+        <v>571619.8856599999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>540762.97163</v>
+        <v>620110.66747</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>663791.57386</v>
+        <v>729744.65671</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>711386.39338</v>
+        <v>706320.5682900001</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>949430.0273199999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1341982.05511</v>
+        <v>1340570.21232</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1684560.20473</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1679793.40831</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3034188.873</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>199571.99141</v>
@@ -1742,31 +1748,36 @@
         <v>220668.18955</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>313570.9911</v>
+        <v>313577.7606</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>320836.91993</v>
+        <v>524812.99201</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>450148.19932</v>
+        <v>696584.9203299999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>749685.15806</v>
+        <v>758919.3440099999</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>908088.38958</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2369503.52288</v>
+        <v>2370022.12307</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1433178.06468</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1434974.08646</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2759371.103</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>4251.56801</v>
@@ -1784,10 +1795,10 @@
         <v>10804.99333</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>912.7990800000001</v>
+        <v>8504.149949999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>646.81272</v>
+        <v>5370.275219999999</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>18364.96228</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1233.47521</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>55171.425</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1823,10 +1839,10 @@
         <v>10697.06667</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>63246.37095</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>753.0021899999999</v>
+        <v>22472.92069</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>40248.1016</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>70926.20604999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>32490.97</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>14478.1169</v>
@@ -1862,28 +1883,33 @@
         <v>16425.59935</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>16339.57402</v>
+        <v>24712.99863</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>20905.39619</v>
+        <v>40362.76457</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>42303.05303</v>
+        <v>42346.58555</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>50964.72951999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>149367.67353</v>
+        <v>149380.30633</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>129564.88152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>129610.10057</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>100656.127</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>455.47025</v>
@@ -1895,16 +1921,16 @@
         <v>1887.64409</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2303.366979999999</v>
+        <v>2303.36698</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>3022.03086</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>633.4636400000001</v>
+        <v>1953.3159</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>295.49279</v>
+        <v>1173.57944</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>446.8837599999999</v>
@@ -1916,13 +1942,18 @@
         <v>3767.06341</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>4112.705550000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3971.07918</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>18719.666</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>4506.0259</v>
@@ -1931,16 +1962,16 @@
         <v>5256.29253</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>6188.792199999999</v>
+        <v>6188.7922</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>6859.762989999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>10504.22337</v>
+        <v>10506.07217</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>14648.50912</v>
+        <v>14650.35792</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>14454.98757</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>27906.9501</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>25516.201</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>151.73679</v>
@@ -1970,7 +2006,7 @@
         <v>165.62832</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>575.8800299999999</v>
+        <v>575.88003</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>583.95596</v>
@@ -1979,13 +2015,13 @@
         <v>857.59948</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>521.30204</v>
+        <v>1279.86063</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>394.50097</v>
+        <v>1311.91113</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>963.0381000000001</v>
+        <v>963.0381</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>598.76611</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>13496.83588</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>9886.746999999999</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>148365.20158</v>
@@ -2015,31 +2056,36 @@
         <v>134053.59136</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>200400.0335</v>
+        <v>200404.9542</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>212953.22324</v>
+        <v>329410.28504</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>335738.28762</v>
+        <v>532850.63749</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>542730.2586000001</v>
+        <v>546480.4148200001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>692206.1519100001</v>
+        <v>692206.15191</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1909691.79804</v>
+        <v>1910234.41058</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1027359.48396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1029025.58508</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2272203.375</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>4.37718</v>
@@ -2060,7 +2106,7 @@
         <v>2849.31536</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>970.19273</v>
+        <v>971.39273</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>114.64753</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>286.78195</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>207.207</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>27359.4948</v>
@@ -2129,34 +2185,39 @@
         <v>38432.27131</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>53646.39510000001</v>
+        <v>53646.39509999999</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>60256.15802</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>71978.73342999999</v>
+        <v>78206.33763000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>75989.52654000001</v>
+        <v>77616.45148999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>88656.85152</v>
+        <v>94097.34873000001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>125712.61892</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>169923.29188</v>
+        <v>169886.64673</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>158290.74446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>158517.07244</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>244519.385</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>200161.11801</v>
@@ -2168,37 +2229,42 @@
         <v>257489.12681</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>160123.83613</v>
+        <v>160124.41971</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>236352.93409</v>
+        <v>236355.3942</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>292695.02844</v>
+        <v>359089.66724</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>425280.46956</v>
+        <v>541634.34728</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>606185.2281400001</v>
+        <v>611612.16963</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>702736.5963999999</v>
+        <v>702736.5964</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1703062.07998</v>
+        <v>1703352.1684</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>996149.4298500002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>997614.78178</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2310567.31</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>385.3795500000001</v>
+        <v>385.37955</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>2119.51181</v>
@@ -2216,25 +2282,30 @@
         <v>2134.05194</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2185.80098</v>
+        <v>2185.80573</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>948.2937900000001</v>
+        <v>948.2937899999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2127.060179999999</v>
+        <v>2127.06018</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2848.4221</v>
+        <v>2849.42634</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4555.81966</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4563.482649999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>4699.527</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>12979.56616</v>
@@ -2246,7 +2317,7 @@
         <v>10342.81333</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>9812.69376</v>
+        <v>9812.693760000002</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>10430.19909</v>
@@ -2255,10 +2326,10 @@
         <v>20778.19091</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>27935.83939</v>
+        <v>28660.75239</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>57284.26177</v>
+        <v>59544.85404</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>33617.74311</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>46976.21713</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>51448.67</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2291,10 +2367,10 @@
         <v>497.4541</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>16.08714</v>
+        <v>259.58656</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>3.3452</v>
+        <v>272.49657</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>148.06468</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>2874.8377</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2431.972</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>150148.59187</v>
@@ -2327,31 +2408,36 @@
         <v>108644.3799</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>172130.89282</v>
+        <v>172133.35293</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>216456.39826</v>
+        <v>280713.85866</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>347060.48671</v>
+        <v>461374.64006</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>484649.49693</v>
+        <v>487815.8461500001</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>592032.86376</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1570956.7137</v>
+        <v>1571236.4372</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>869696.9127999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>871131.20051</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2137678.002</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>13.66748</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1359.60791</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1036.304</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,32 +2516,37 @@
       <c r="M42" s="48" t="n">
         <v>29.42994</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>36633.91295</v>
+        <v>36633.91295000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>37032.98674999999</v>
+        <v>37032.98675000001</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>42063.19565</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>39456.84737</v>
+        <v>39457.43095</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>51050.35308</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>50126.20190000001</v>
+        <v>52019.88088</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>47409.11062</v>
+        <v>48454.76587</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>62959.12569</v>
@@ -2459,16 +2555,21 @@
         <v>74149.97878</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>86277.21135999999</v>
+        <v>86286.57204000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>70656.60471000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>70680.00594</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>113272.835</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>68327.67009</v>
@@ -2483,73 +2584,83 @@
         <v>102269.31099</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>151265.96876</v>
+        <v>151289.08959</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>122252.59735</v>
+        <v>220916.5282</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>170960.44651</v>
+        <v>348387.88142</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>403277.61772</v>
+        <v>403410.74942</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>434719.29217</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1225273.11242</v>
+        <v>1225795.45094</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>892006.05004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>891983.74612</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>920854.971</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>63247.91948999999</v>
+        <v>63247.91949</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>48008.15990000001</v>
+        <v>48008.1599</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>66362.15828</v>
+        <v>66362.15827999999</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>86268.26815</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>116297.75758</v>
+        <v>116320.87841</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>115840.84578</v>
+        <v>176796.00611</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>166474.28664</v>
+        <v>245544.58251</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>266501.97917</v>
+        <v>266635.11087</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>301474.48462</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>733616.1169900001</v>
+        <v>734138.45551</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>729965.94184</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>729943.6379200001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>742014.473</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>5079.750599999999</v>
+        <v>5079.7506</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>26841.57051</v>
@@ -2564,10 +2675,10 @@
         <v>34968.21118</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>6411.75157</v>
+        <v>44120.52209000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4486.15987</v>
+        <v>102843.29891</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>136775.63855</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>162040.1082</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>178840.498</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>296282.39252</v>
+        <v>296282.3925200001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>325496.71885</v>
+        <v>325496.7188500001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>339698.45684</v>
+        <v>339698.4568400001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>477133.61838</v>
+        <v>477076.6779</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>497630.68562</v>
+        <v>497553.16247</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>446652.26577</v>
+        <v>564917.46404</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>517698.85711</v>
+        <v>536307.34834</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>451608.7055800001</v>
+        <v>450216.9932500001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>720062.5283299999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>783150.3855900001</v>
+        <v>781444.7160499999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1229582.78952</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1225168.96687</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2562137.695</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>30174.29741</v>
@@ -2642,28 +2763,33 @@
         <v>48154.43048</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>49187.47024</v>
+        <v>225754.01729</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>53575.72722000001</v>
+        <v>105921.03012</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>208143.2129</v>
+        <v>208284.98604</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>347717.97347</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>528870.61511</v>
+        <v>528899.8607399999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>466088.11052</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>466617.54936</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>657180.61</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>7090.88607</v>
@@ -2684,7 +2810,7 @@
         <v>2260.20099</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1468.77962</v>
+        <v>1469.4562</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>2524.68416</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>2270.20572</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1603.111</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>23083.41134</v>
@@ -2720,34 +2851,39 @@
         <v>43059.22493</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>46927.26925</v>
+        <v>223493.8163</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>52106.94759999999</v>
+        <v>104451.57392</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>205618.52874</v>
+        <v>205760.30188</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>344952.9613</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>526966.43801</v>
+        <v>526995.6836399999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>463817.9048</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>464347.34364</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>655577.499</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>52031.26067000001</v>
+        <v>52031.26067</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>51919.19422999999</v>
+        <v>51919.19423</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>114489.08918</v>
@@ -2756,34 +2892,39 @@
         <v>70443.44549</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>48199.13728</v>
+        <v>48202.43150999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>84190.62922</v>
+        <v>117664.8531</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>81111.09232999998</v>
+        <v>99368.57778000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>137966.70561</v>
+        <v>138214.63783</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>112454.18562</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>292263.5010100001</v>
+        <v>292282.534</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>148602.31031</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>149111.92562</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>356737.354</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>5171.083209999999</v>
+        <v>5171.08321</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>7018.632729999999</v>
@@ -2798,28 +2939,33 @@
         <v>10292.4115</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1844.93245</v>
+        <v>18066.07724</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3377.98928</v>
+        <v>7038.27342</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>4923.46933</v>
+        <v>4923.469330000001</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>3558.98222</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>7639.34407</v>
+        <v>7641.081149999999</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>12463.90967</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>13507.037</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>5221.920109999999</v>
@@ -2828,7 +2974,7 @@
         <v>16077.76463</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>9481.978610000002</v>
+        <v>9481.97861</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>8175.104240000001</v>
@@ -2837,10 +2983,10 @@
         <v>10261.89349</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8395.74589</v>
+        <v>23410.855</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>33070.66203</v>
+        <v>41866.46942</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>12956.69247</v>
@@ -2852,13 +2998,18 @@
         <v>23907.86353</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>32842.16889</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>33174.4934</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>14627.828</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>41638.25735</v>
@@ -2870,73 +3021,83 @@
         <v>99157.81077999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>54770.33769000001</v>
+        <v>54770.33769</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>27644.83229</v>
+        <v>27648.12652</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>73949.95087999999</v>
+        <v>76187.92086</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>44662.44102000001</v>
+        <v>50463.83494</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>120086.54381</v>
+        <v>120334.47603</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>88920.07801000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>260716.29341</v>
+        <v>260733.58932</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>103296.23175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>103473.52255</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>328602.489</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>274425.42926</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>305705.0200499999</v>
+        <v>305705.02005</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>248527.5495</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>446227.00515</v>
+        <v>446170.0646699999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>497585.9788200001</v>
+        <v>497505.16144</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>411649.10679</v>
+        <v>673006.62823</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>490163.492</v>
+        <v>542859.80068</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>521785.21287</v>
+        <v>520287.34146</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>955326.3161800001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1019757.49969</v>
+        <v>1018062.04279</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1547068.58973</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1542674.59061</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2862580.951</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>54503.21633</v>
@@ -2948,16 +3109,16 @@
         <v>57138.49316</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>87028.52055999999</v>
+        <v>87028.52056</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>86529.87217</v>
+        <v>86529.87216999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>79035.59165999998</v>
+        <v>117716.04042</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>96446.01576000001</v>
+        <v>103048.27269</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>89811.95918999999</v>
@@ -2966,16 +3127,21 @@
         <v>144706.74019</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>152270.79938</v>
+        <v>152320.99105</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>217455.78356</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>217930.83467</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>452010.062</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>219922.21293</v>
@@ -2987,31 +3153,34 @@
         <v>191389.05634</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>359198.4845899999</v>
+        <v>359141.5441100001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>411056.10665</v>
+        <v>410975.28927</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>332613.51513</v>
+        <v>555290.5878099999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>393717.4762399999</v>
+        <v>439811.52799</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>431973.25368</v>
+        <v>430475.3822700001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>810619.5759899999</v>
+        <v>810619.57599</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>867486.70031</v>
+        <v>865741.05174</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1329612.80617</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1324743.75594</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2410570.889</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>877</v>
@@ -3041,31 +3213,34 @@
         <v>920</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1083</v>
+        <v>1092</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1209</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1166</v>
+        <v>1284</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1455</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>